--- a/docs/other/scratchpad.xlsx
+++ b/docs/other/scratchpad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unkno\Desktop\JCAP\Docs\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JCAP\jcap\docs\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CE2A1A-80A4-4B21-83FB-A0C9144FC658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF24779-4DC2-4D56-A0BA-04E93AA864A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sandbox" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,19 @@
     <sheet name="LONG-to-LONG (Bad) - Table 1-1" sheetId="2" r:id="rId3"/>
     <sheet name="LONG-to-LONG (Good) - Table 1-1" sheetId="3" r:id="rId4"/>
     <sheet name="Buffer-to-buffer - Table 1-1" sheetId="4" r:id="rId5"/>
+    <sheet name="Parallax" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="163">
   <si>
     <t>PASM Line</t>
   </si>
@@ -448,6 +455,78 @@
   </si>
   <si>
     <t>spyoff = mir ? spysz - (cursl - spypos) - 1 : cursl - spypos</t>
+  </si>
+  <si>
+    <t>NUM_REN_COGS</t>
+  </si>
+  <si>
+    <t>NUM_PX_REGS</t>
+  </si>
+  <si>
+    <t>PARALLAX_MIN</t>
+  </si>
+  <si>
+    <t>initsl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = initial scanline</t>
+  </si>
+  <si>
+    <t>hspptr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = parallax table address</t>
+  </si>
+  <si>
+    <t>temptr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = maybe address of next relevant parallax entry for a given render cog?</t>
+  </si>
+  <si>
+    <t>maxptr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = largest parallax entry address in table</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = the parallax table entry @temptr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = the scanline index of the parallax table entry @temptr</t>
+  </si>
+  <si>
+    <t>C_FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = WC if the initial scanline index is less than the temp scanline index</t>
+  </si>
+  <si>
+    <t>We iterate over the parallax table backwards until we find an entry whose scanline index &gt;= initsl</t>
+  </si>
+  <si>
+    <t>nexthp</t>
+  </si>
+  <si>
+    <t>nextptr</t>
+  </si>
+  <si>
+    <t>horpos</t>
+  </si>
+  <si>
+    <t>verpos</t>
+  </si>
+  <si>
+    <t>nxtpsl</t>
+  </si>
+  <si>
+    <t>Z_FLAG</t>
+  </si>
+  <si>
+    <t>nxtsl</t>
+  </si>
+  <si>
+    <t>nxtptr</t>
   </si>
 </sst>
 </file>
@@ -465,6 +544,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -472,17 +552,20 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -490,26 +573,31 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="28"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -524,7 +612,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +754,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,209 +1618,234 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="132">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="17" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="17" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="17" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2949,8 +3068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4196,36 +4315,36 @@
       <c r="C27" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D27" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="95" t="s">
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="95" t="s">
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="95" t="s">
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="95" t="s">
+      <c r="Q27" s="115"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="115"/>
+      <c r="T27" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="115"/>
+      <c r="W27" s="115"/>
       <c r="X27" s="40"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -4936,99 +5055,99 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="56"/>
-      <c r="D43" s="100" t="s">
+      <c r="D43" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="102"/>
-      <c r="L43" s="100" t="s">
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="112"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="101"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="100" t="s">
+      <c r="M43" s="112"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="112"/>
+      <c r="R43" s="112"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="U43" s="101"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="101"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101"/>
-      <c r="AA43" s="102"/>
-      <c r="AB43" s="100" t="s">
+      <c r="U43" s="112"/>
+      <c r="V43" s="112"/>
+      <c r="W43" s="112"/>
+      <c r="X43" s="112"/>
+      <c r="Y43" s="112"/>
+      <c r="Z43" s="112"/>
+      <c r="AA43" s="113"/>
+      <c r="AB43" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="AC43" s="101"/>
-      <c r="AD43" s="101"/>
-      <c r="AE43" s="101"/>
-      <c r="AF43" s="101"/>
-      <c r="AG43" s="101"/>
-      <c r="AH43" s="101"/>
-      <c r="AI43" s="102"/>
+      <c r="AC43" s="112"/>
+      <c r="AD43" s="112"/>
+      <c r="AE43" s="112"/>
+      <c r="AF43" s="112"/>
+      <c r="AG43" s="112"/>
+      <c r="AH43" s="112"/>
+      <c r="AI43" s="113"/>
     </row>
     <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="56"/>
-      <c r="D44" s="97" t="s">
+      <c r="D44" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="97" t="s">
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="97" t="s">
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="M44" s="98"/>
-      <c r="N44" s="98"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="97" t="s">
+      <c r="M44" s="117"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="Q44" s="98"/>
-      <c r="R44" s="98"/>
-      <c r="S44" s="99"/>
-      <c r="T44" s="97" t="s">
+      <c r="Q44" s="117"/>
+      <c r="R44" s="117"/>
+      <c r="S44" s="118"/>
+      <c r="T44" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="U44" s="98"/>
-      <c r="V44" s="98"/>
-      <c r="W44" s="99"/>
-      <c r="X44" s="97" t="s">
+      <c r="U44" s="117"/>
+      <c r="V44" s="117"/>
+      <c r="W44" s="118"/>
+      <c r="X44" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="Y44" s="98"/>
-      <c r="Z44" s="98"/>
-      <c r="AA44" s="99"/>
-      <c r="AB44" s="97" t="s">
+      <c r="Y44" s="117"/>
+      <c r="Z44" s="117"/>
+      <c r="AA44" s="118"/>
+      <c r="AB44" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="AC44" s="98"/>
-      <c r="AD44" s="98"/>
-      <c r="AE44" s="99"/>
-      <c r="AF44" s="97" t="s">
+      <c r="AC44" s="117"/>
+      <c r="AD44" s="117"/>
+      <c r="AE44" s="118"/>
+      <c r="AF44" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="AG44" s="98"/>
-      <c r="AH44" s="98"/>
-      <c r="AI44" s="99"/>
+      <c r="AG44" s="117"/>
+      <c r="AH44" s="117"/>
+      <c r="AI44" s="118"/>
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -5446,26 +5565,26 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="56"/>
-      <c r="L52" s="100" t="s">
+      <c r="L52" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="M52" s="101"/>
-      <c r="N52" s="101"/>
-      <c r="O52" s="101"/>
-      <c r="P52" s="101"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="101"/>
-      <c r="S52" s="102"/>
-      <c r="T52" s="100" t="s">
+      <c r="M52" s="112"/>
+      <c r="N52" s="112"/>
+      <c r="O52" s="112"/>
+      <c r="P52" s="112"/>
+      <c r="Q52" s="112"/>
+      <c r="R52" s="112"/>
+      <c r="S52" s="113"/>
+      <c r="T52" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="U52" s="101"/>
-      <c r="V52" s="101"/>
-      <c r="W52" s="101"/>
-      <c r="X52" s="101"/>
-      <c r="Y52" s="101"/>
-      <c r="Z52" s="101"/>
-      <c r="AA52" s="102"/>
+      <c r="U52" s="112"/>
+      <c r="V52" s="112"/>
+      <c r="W52" s="112"/>
+      <c r="X52" s="112"/>
+      <c r="Y52" s="112"/>
+      <c r="Z52" s="112"/>
+      <c r="AA52" s="113"/>
       <c r="AB52" s="14"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
@@ -5487,30 +5606,30 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="56"/>
-      <c r="L53" s="97" t="s">
+      <c r="L53" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="M53" s="98"/>
-      <c r="N53" s="98"/>
-      <c r="O53" s="99"/>
-      <c r="P53" s="97" t="s">
+      <c r="M53" s="117"/>
+      <c r="N53" s="117"/>
+      <c r="O53" s="118"/>
+      <c r="P53" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="Q53" s="98"/>
-      <c r="R53" s="98"/>
-      <c r="S53" s="99"/>
-      <c r="T53" s="97" t="s">
+      <c r="Q53" s="117"/>
+      <c r="R53" s="117"/>
+      <c r="S53" s="118"/>
+      <c r="T53" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="U53" s="98"/>
-      <c r="V53" s="98"/>
-      <c r="W53" s="99"/>
-      <c r="X53" s="97" t="s">
+      <c r="U53" s="117"/>
+      <c r="V53" s="117"/>
+      <c r="W53" s="118"/>
+      <c r="X53" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="Y53" s="98"/>
-      <c r="Z53" s="98"/>
-      <c r="AA53" s="99"/>
+      <c r="Y53" s="117"/>
+      <c r="Z53" s="117"/>
+      <c r="AA53" s="118"/>
       <c r="AB53" s="14"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
@@ -5855,13 +5974,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AB43:AI43"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="X53:AA53"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="T52:AA52"/>
     <mergeCell ref="L27:O27"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="P53:S53"/>
@@ -5878,6 +5990,13 @@
     <mergeCell ref="D43:K43"/>
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="D44:G44"/>
+    <mergeCell ref="AB43:AI43"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="X53:AA53"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="T52:AA52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5891,7 +6010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91793D44-BCD1-44CE-9C40-D1F7D97CC6C2}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -5899,61 +6018,61 @@
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="108" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" style="109" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="94" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" style="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="110">
+      <c r="B1" s="96">
         <v>15</v>
       </c>
-      <c r="D1" s="106">
+      <c r="D1" s="92">
         <v>1</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="93" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="111">
+      <c r="B2" s="97">
         <v>0</v>
       </c>
-      <c r="D2" s="108">
+      <c r="D2" s="94">
         <v>2</v>
       </c>
-      <c r="E2" s="119" t="s">
+      <c r="E2" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="106" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="111">
+      <c r="B3" s="97">
         <v>16</v>
       </c>
-      <c r="D3" s="108">
+      <c r="D3" s="94">
         <v>3</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="101" t="s">
         <v>120</v>
       </c>
       <c r="H3">
@@ -5963,7 +6082,7 @@
         <f>_xlfn.FLOOR.MATH(H3/8)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="121" t="s">
+      <c r="J3" s="107" t="s">
         <v>135</v>
       </c>
       <c r="K3">
@@ -5975,19 +6094,19 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="112" t="b">
+      <c r="B4" s="98" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="94">
         <v>4</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="100" t="s">
         <v>121</v>
       </c>
       <c r="H4">
@@ -5997,7 +6116,7 @@
         <f t="shared" ref="I4:I18" si="0">_xlfn.FLOOR.MATH(H4/8)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="122" t="s">
+      <c r="J4" s="108" t="s">
         <v>134</v>
       </c>
       <c r="K4">
@@ -6009,17 +6128,17 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="124">
+      <c r="B5" s="110">
         <f>IF(B4,B3-(B1-B2)-1,B1-B2)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="108">
+      <c r="D5" s="94">
         <v>5</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="100" t="s">
         <v>122</v>
       </c>
       <c r="H5">
@@ -6029,7 +6148,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="122" t="s">
+      <c r="J5" s="108" t="s">
         <v>133</v>
       </c>
       <c r="K5">
@@ -6041,17 +6160,17 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="113" t="str">
+      <c r="B6" s="99" t="str">
         <f>IF(IF((B1-B2)&lt;0, 4294967295, B1-B2)&lt;B3, "YES", "NO")</f>
         <v>YES</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="94">
         <v>6</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="100" t="s">
         <v>123</v>
       </c>
       <c r="H6">
@@ -6061,7 +6180,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="122" t="s">
+      <c r="J6" s="108" t="s">
         <v>132</v>
       </c>
       <c r="K6">
@@ -6073,10 +6192,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="108">
+      <c r="D7" s="94">
         <v>7</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="100" t="s">
         <v>124</v>
       </c>
       <c r="H7">
@@ -6086,7 +6205,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="122" t="s">
+      <c r="J7" s="108" t="s">
         <v>131</v>
       </c>
       <c r="K7">
@@ -6098,10 +6217,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="108">
+      <c r="D8" s="94">
         <v>8</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="100" t="s">
         <v>125</v>
       </c>
       <c r="H8">
@@ -6111,7 +6230,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="122" t="s">
+      <c r="J8" s="108" t="s">
         <v>130</v>
       </c>
       <c r="K8">
@@ -6123,10 +6242,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="108">
+      <c r="D9" s="94">
         <v>9</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="100" t="s">
         <v>126</v>
       </c>
       <c r="H9">
@@ -6136,7 +6255,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="122" t="s">
+      <c r="J9" s="108" t="s">
         <v>129</v>
       </c>
       <c r="K9">
@@ -6148,10 +6267,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="108">
+      <c r="D10" s="94">
         <v>10</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="103" t="s">
         <v>127</v>
       </c>
       <c r="H10">
@@ -6161,7 +6280,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="123" t="s">
+      <c r="J10" s="109" t="s">
         <v>128</v>
       </c>
       <c r="K10">
@@ -6173,10 +6292,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="108">
+      <c r="D11" s="94">
         <v>11</v>
       </c>
-      <c r="G11" s="121" t="s">
+      <c r="G11" s="107" t="s">
         <v>128</v>
       </c>
       <c r="H11">
@@ -6186,7 +6305,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J11" s="115" t="s">
+      <c r="J11" s="101" t="s">
         <v>127</v>
       </c>
       <c r="K11">
@@ -6198,10 +6317,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="108">
+      <c r="D12" s="94">
         <v>12</v>
       </c>
-      <c r="G12" s="122" t="s">
+      <c r="G12" s="108" t="s">
         <v>129</v>
       </c>
       <c r="H12">
@@ -6211,7 +6330,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J12" s="114" t="s">
+      <c r="J12" s="100" t="s">
         <v>126</v>
       </c>
       <c r="K12">
@@ -6223,10 +6342,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D13" s="108">
+      <c r="D13" s="94">
         <v>13</v>
       </c>
-      <c r="G13" s="122" t="s">
+      <c r="G13" s="108" t="s">
         <v>130</v>
       </c>
       <c r="H13">
@@ -6236,7 +6355,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J13" s="114" t="s">
+      <c r="J13" s="100" t="s">
         <v>125</v>
       </c>
       <c r="K13">
@@ -6248,10 +6367,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="108">
+      <c r="D14" s="94">
         <v>14</v>
       </c>
-      <c r="G14" s="122" t="s">
+      <c r="G14" s="108" t="s">
         <v>131</v>
       </c>
       <c r="H14">
@@ -6261,7 +6380,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J14" s="114" t="s">
+      <c r="J14" s="100" t="s">
         <v>124</v>
       </c>
       <c r="K14">
@@ -6273,10 +6392,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="108">
+      <c r="D15" s="94">
         <v>15</v>
       </c>
-      <c r="G15" s="122" t="s">
+      <c r="G15" s="108" t="s">
         <v>132</v>
       </c>
       <c r="H15">
@@ -6286,7 +6405,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J15" s="114" t="s">
+      <c r="J15" s="100" t="s">
         <v>123</v>
       </c>
       <c r="K15">
@@ -6298,10 +6417,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="108">
+      <c r="D16" s="94">
         <v>16</v>
       </c>
-      <c r="G16" s="122" t="s">
+      <c r="G16" s="108" t="s">
         <v>133</v>
       </c>
       <c r="H16">
@@ -6311,7 +6430,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J16" s="114" t="s">
+      <c r="J16" s="100" t="s">
         <v>122</v>
       </c>
       <c r="K16">
@@ -6323,10 +6442,10 @@
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="108">
+      <c r="D17" s="94">
         <v>17</v>
       </c>
-      <c r="G17" s="122" t="s">
+      <c r="G17" s="108" t="s">
         <v>134</v>
       </c>
       <c r="H17">
@@ -6336,7 +6455,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J17" s="114" t="s">
+      <c r="J17" s="100" t="s">
         <v>121</v>
       </c>
       <c r="K17">
@@ -6348,10 +6467,10 @@
       </c>
     </row>
     <row r="18" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="108">
+      <c r="D18" s="94">
         <v>18</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="109" t="s">
         <v>135</v>
       </c>
       <c r="H18">
@@ -6361,7 +6480,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J18" s="117" t="s">
+      <c r="J18" s="103" t="s">
         <v>120</v>
       </c>
       <c r="K18">
@@ -6373,107 +6492,107 @@
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="108">
+      <c r="D19" s="94">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="108">
+      <c r="D20" s="94">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="108">
+      <c r="D21" s="94">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="108">
+      <c r="D22" s="94">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="108">
+      <c r="D23" s="94">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="108">
+      <c r="D24" s="94">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D25" s="108">
+      <c r="D25" s="94">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="108">
+      <c r="D26" s="94">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D27" s="108">
+      <c r="D27" s="94">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="108">
+      <c r="D28" s="94">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D29" s="108">
+      <c r="D29" s="94">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="108">
+      <c r="D30" s="94">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D31" s="108">
+      <c r="D31" s="94">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D32" s="108">
+      <c r="D32" s="94">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="108">
+      <c r="D33" s="94">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="108">
+      <c r="D34" s="94">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="108">
+      <c r="D35" s="94">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="108">
+      <c r="D36" s="94">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="108">
+      <c r="D37" s="94">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="108">
+      <c r="D38" s="94">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="108">
+      <c r="D39" s="94">
         <v>39</v>
       </c>
     </row>
@@ -6494,21 +6613,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="256" width="8.88671875" style="64" customWidth="1"/>
+    <col min="1" max="256" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="66"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -6517,18 +6636,18 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="66" t="s">
         <v>69</v>
       </c>
       <c r="H2" s="6"/>
@@ -6538,996 +6657,996 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="69" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="120"/>
+      <c r="B4" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="72">
         <v>-3</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="73">
+      <c r="A5" s="120"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="72">
         <f t="shared" ref="C5:C20" si="0">C4+1</f>
         <v>-2</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="76" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="104"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="73">
+      <c r="A6" s="120"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="72">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="82" t="s">
+      <c r="H6" s="76"/>
+      <c r="I6" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="73">
+      <c r="A7" s="120"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="84" t="s">
+      <c r="E7" s="70"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="120"/>
+      <c r="B8" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="72">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="73">
+      <c r="E8" s="70"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="72">
         <v>0</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="73">
+      <c r="A9" s="120"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="72">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="73">
+      <c r="E9" s="70"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="72">
         <f t="shared" ref="G9:G19" si="1">G8+1</f>
         <v>1</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="82" t="s">
+      <c r="H9" s="70"/>
+      <c r="I9" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="104"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="73">
+      <c r="A10" s="120"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="72">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="73">
+      <c r="E10" s="70"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="72">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="82" t="s">
+      <c r="H10" s="70"/>
+      <c r="I10" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="104"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="73">
+      <c r="A11" s="120"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="72">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="69" t="s">
+      <c r="E11" s="70"/>
+      <c r="F11" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="72">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="104"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="120"/>
+      <c r="B12" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="72">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="73">
+      <c r="E12" s="70"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="72">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="104"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="73">
+      <c r="A13" s="120"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="72">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="73">
+      <c r="E13" s="70"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="72">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="104"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="73">
+      <c r="A14" s="120"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="72">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="73">
+      <c r="E14" s="70"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="72">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="73">
+      <c r="A15" s="120"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="72">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="69" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="72">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="104"/>
-      <c r="B16" s="69" t="s">
+      <c r="A16" s="120"/>
+      <c r="B16" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="72">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="73">
+      <c r="E16" s="70"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="72">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="104"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="73">
+      <c r="A17" s="120"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="72">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="73">
+      <c r="E17" s="70"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="72">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="104"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="73">
+      <c r="A18" s="120"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="72">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="73">
+      <c r="E18" s="70"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="72">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="104"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="73">
+      <c r="A19" s="120"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="72">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="69" t="s">
+      <c r="E19" s="70"/>
+      <c r="F19" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="72">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
     </row>
     <row r="20" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="104"/>
-      <c r="B20" s="69" t="s">
+      <c r="A20" s="120"/>
+      <c r="B20" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="72">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="70" t="s">
+      <c r="E20" s="70"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="104"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="70" t="s">
+      <c r="A21" s="120"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="69" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="72">
         <v>251</v>
       </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="104"/>
-      <c r="B22" s="69" t="s">
+      <c r="A22" s="120"/>
+      <c r="B22" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="72">
         <f>C20+(4*30)+(4*29)</f>
         <v>249</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="73">
+      <c r="E22" s="70"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="72">
         <f t="shared" ref="G22:G29" si="2">G21+1</f>
         <v>252</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="104"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="73">
+      <c r="A23" s="120"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="72">
         <f t="shared" ref="C23:C31" si="3">C22+1</f>
         <v>250</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="73">
+      <c r="E23" s="70"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="72">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="H23" s="82" t="s">
+      <c r="H23" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="104"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="73">
+      <c r="A24" s="120"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="72">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="73">
+      <c r="E24" s="70"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="72">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="104"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="73">
+      <c r="A25" s="120"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="72">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="69" t="s">
+      <c r="E25" s="70"/>
+      <c r="F25" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="73">
+      <c r="G25" s="72">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="104"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="73">
+      <c r="A26" s="120"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="72">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="73">
+      <c r="E26" s="70"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="72">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="104"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="73">
+      <c r="A27" s="120"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="72">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="73">
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="72">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="104"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="73">
+      <c r="A28" s="120"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="72">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="73">
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="72">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="73">
+      <c r="A29" s="120"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="72">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="73">
+      <c r="G29" s="72">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="H29" s="86" t="s">
+      <c r="H29" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="120"/>
+      <c r="B30" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="72">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="69" t="s">
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="73">
+      <c r="G30" s="72">
         <f>G29+23</f>
         <v>282</v>
       </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="72">
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="69" t="s">
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="73">
+      <c r="G31" s="72">
         <f>G30+4</f>
         <v>286</v>
       </c>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="104"/>
-      <c r="B32" s="69" t="s">
+      <c r="A32" s="120"/>
+      <c r="B32" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="72">
         <f>C31+4</f>
         <v>262</v>
       </c>
-      <c r="D32" s="88" t="s">
+      <c r="D32" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="89"/>
-      <c r="F32" s="69" t="s">
+      <c r="E32" s="88"/>
+      <c r="F32" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="73">
+      <c r="G32" s="72">
         <f>G31+4</f>
         <v>290</v>
       </c>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="104"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="120"/>
+      <c r="B33" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="72">
         <f>C32+8</f>
         <v>270</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="88" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="73">
+      <c r="F33" s="77"/>
+      <c r="G33" s="72">
         <f>G32+1</f>
         <v>291</v>
       </c>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="104"/>
-      <c r="B34" s="69" t="s">
+      <c r="A34" s="120"/>
+      <c r="B34" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="72">
         <f>C33+4</f>
         <v>274</v>
       </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="73">
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="72">
         <f>G33+1</f>
         <v>292</v>
       </c>
-      <c r="H34" s="90" t="s">
+      <c r="H34" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="90" t="s">
+      <c r="I34" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="104"/>
-      <c r="B35" s="69" t="s">
+      <c r="A35" s="120"/>
+      <c r="B35" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="72">
         <f>C34+4</f>
         <v>278</v>
       </c>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="88" t="s">
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="73">
+      <c r="A36" s="120"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="72">
         <f t="shared" ref="C36:C47" si="4">C35+1</f>
         <v>279</v>
       </c>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="104"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="73">
+      <c r="A37" s="120"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="72">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="104"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="73">
+      <c r="A38" s="120"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="72">
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="104"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="120"/>
+      <c r="B39" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="72">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
-      <c r="D39" s="90" t="s">
+      <c r="D39" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="104"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="73">
+      <c r="A40" s="120"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="72">
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
-      <c r="D40" s="90" t="s">
+      <c r="D40" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="87"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="104"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="73">
+      <c r="A41" s="120"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="72">
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
-      <c r="D41" s="90" t="s">
+      <c r="D41" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="87"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="104"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="73">
+      <c r="A42" s="120"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="72">
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="D42" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="104"/>
-      <c r="B43" s="69" t="s">
+      <c r="A43" s="120"/>
+      <c r="B43" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="73">
+      <c r="C43" s="72">
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="87"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="104"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="73">
+      <c r="A44" s="120"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="72">
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
-      <c r="D44" s="90" t="s">
+      <c r="D44" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="87"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="104"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="73">
+      <c r="A45" s="120"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="72">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="D45" s="90" t="s">
+      <c r="D45" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="104"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="73">
+      <c r="A46" s="120"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="72">
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
-      <c r="D46" s="90" t="s">
+      <c r="D46" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="104"/>
-      <c r="B47" s="69" t="s">
+      <c r="A47" s="120"/>
+      <c r="B47" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="72">
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="D47" s="90" t="s">
+      <c r="D47" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7554,21 +7673,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="256" width="8.88671875" style="92" customWidth="1"/>
+    <col min="1" max="256" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="66"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -7576,18 +7695,18 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="66" t="s">
         <v>69</v>
       </c>
       <c r="H2" s="6"/>
@@ -7596,1000 +7715,1000 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="69" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="120"/>
+      <c r="B4" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="72">
         <v>-3</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="73">
+      <c r="A5" s="120"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="72">
         <f t="shared" ref="C5:C20" si="0">C4+1</f>
         <v>-2</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="76" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="104"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="73">
+      <c r="A6" s="120"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="72">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="82" t="s">
+      <c r="H6" s="76"/>
+      <c r="I6" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="73">
+      <c r="A7" s="120"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="84" t="s">
+      <c r="E7" s="70"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="120"/>
+      <c r="B8" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="72">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="73">
+      <c r="E8" s="70"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="72">
         <v>0</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="73">
+      <c r="A9" s="120"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="72">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="73">
+      <c r="E9" s="70"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="72">
         <f t="shared" ref="G9:G19" si="1">G8+1</f>
         <v>1</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="82" t="s">
+      <c r="H9" s="70"/>
+      <c r="I9" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="104"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="73">
+      <c r="A10" s="120"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="72">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="73">
+      <c r="E10" s="70"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="72">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="82" t="s">
+      <c r="H10" s="70"/>
+      <c r="I10" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="104"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="73">
+      <c r="A11" s="120"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="72">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="69" t="s">
+      <c r="E11" s="70"/>
+      <c r="F11" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="72">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="104"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="120"/>
+      <c r="B12" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="72">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="73">
+      <c r="E12" s="70"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="72">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="104"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="73">
+      <c r="A13" s="120"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="72">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="73">
+      <c r="E13" s="70"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="72">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="104"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="73">
+      <c r="A14" s="120"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="72">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="73">
+      <c r="E14" s="70"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="72">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="73">
+      <c r="A15" s="120"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="72">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="69" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="72">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="104"/>
-      <c r="B16" s="69" t="s">
+      <c r="A16" s="120"/>
+      <c r="B16" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="72">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="73">
+      <c r="E16" s="70"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="72">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="104"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="73">
+      <c r="A17" s="120"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="72">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="73">
+      <c r="E17" s="70"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="72">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="104"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="73">
+      <c r="A18" s="120"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="72">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="73">
+      <c r="E18" s="70"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="72">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="104"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="73">
+      <c r="A19" s="120"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="72">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="69" t="s">
+      <c r="E19" s="70"/>
+      <c r="F19" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="72">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
     </row>
     <row r="20" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="104"/>
-      <c r="B20" s="69" t="s">
+      <c r="A20" s="120"/>
+      <c r="B20" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="72">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="70" t="s">
+      <c r="E20" s="70"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="104"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="70" t="s">
+      <c r="A21" s="120"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="69" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="72">
         <v>251</v>
       </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="104"/>
-      <c r="B22" s="69" t="s">
+      <c r="A22" s="120"/>
+      <c r="B22" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="72">
         <f>C20+(4*30)+(4*29)</f>
         <v>249</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="73">
+      <c r="E22" s="70"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="72">
         <f t="shared" ref="G22:G29" si="2">G21+1</f>
         <v>252</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="104"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="73">
+      <c r="A23" s="120"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="72">
         <f t="shared" ref="C23:C31" si="3">C22+1</f>
         <v>250</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="73">
+      <c r="E23" s="70"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="72">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="H23" s="82" t="s">
+      <c r="H23" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="104"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="73">
+      <c r="A24" s="120"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="72">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="73">
+      <c r="E24" s="70"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="72">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="104"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="73">
+      <c r="A25" s="120"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="72">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="69" t="s">
+      <c r="E25" s="70"/>
+      <c r="F25" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="73">
+      <c r="G25" s="72">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="104"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="73">
+      <c r="A26" s="120"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="72">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="73">
+      <c r="E26" s="70"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="72">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="104"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="73">
+      <c r="A27" s="120"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="72">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="73">
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="72">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="104"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="73">
+      <c r="A28" s="120"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="72">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="73">
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="72">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="73">
+      <c r="A29" s="120"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="72">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="73">
+      <c r="G29" s="72">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="H29" s="93"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="120"/>
+      <c r="B30" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="72">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="69" t="s">
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="73">
+      <c r="G30" s="72">
         <f>G29+23</f>
         <v>282</v>
       </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="72">
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="69" t="s">
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="73">
+      <c r="G31" s="72">
         <f>G30+4</f>
         <v>286</v>
       </c>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="104"/>
-      <c r="B32" s="69" t="s">
+      <c r="A32" s="120"/>
+      <c r="B32" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="72">
         <f>C31+4</f>
         <v>262</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="69" t="s">
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="73">
+      <c r="G32" s="72">
         <f>G31+4</f>
         <v>290</v>
       </c>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="104"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="120"/>
+      <c r="B33" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="72">
         <f>C32+8</f>
         <v>270</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="73">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="72">
         <f>G32+1</f>
         <v>291</v>
       </c>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="104"/>
-      <c r="B34" s="69" t="s">
+      <c r="A34" s="120"/>
+      <c r="B34" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="72">
         <f>C33+4</f>
         <v>274</v>
       </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="73">
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="72">
         <f>G33+1</f>
         <v>292</v>
       </c>
-      <c r="H34" s="87"/>
-      <c r="I34" s="90" t="s">
+      <c r="H34" s="86"/>
+      <c r="I34" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="104"/>
-      <c r="B35" s="69" t="s">
+      <c r="A35" s="120"/>
+      <c r="B35" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="72">
         <f>C34+4</f>
         <v>278</v>
       </c>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="73">
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="72">
         <f>G34+1</f>
         <v>293</v>
       </c>
-      <c r="H35" s="90" t="s">
+      <c r="H35" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="89"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104"/>
-      <c r="B36" s="69" t="s">
+      <c r="A36" s="120"/>
+      <c r="B36" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C36" s="72">
         <f>C35+4</f>
         <v>282</v>
       </c>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="104"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="120"/>
+      <c r="B37" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="72">
         <f>C36+4</f>
         <v>286</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="104"/>
-      <c r="B38" s="69" t="s">
+      <c r="A38" s="120"/>
+      <c r="B38" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="72">
         <f>C37+4</f>
         <v>290</v>
       </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="104"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="73">
+      <c r="A39" s="120"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="72">
         <f t="shared" ref="C39:C50" si="4">C38+1</f>
         <v>291</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="104"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="73">
+      <c r="A40" s="120"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="72">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="104"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="73">
+      <c r="A41" s="120"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="72">
         <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="D41" s="90" t="s">
+      <c r="D41" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="87"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="104"/>
-      <c r="B42" s="69" t="s">
+      <c r="A42" s="120"/>
+      <c r="B42" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="72">
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="D42" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="104"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="73">
+      <c r="A43" s="120"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="72">
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="87"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="104"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="73">
+      <c r="A44" s="120"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="72">
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
-      <c r="D44" s="90" t="s">
+      <c r="D44" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="87"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="104"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="73">
+      <c r="A45" s="120"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="72">
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
-      <c r="D45" s="90" t="s">
+      <c r="D45" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="104"/>
-      <c r="B46" s="69" t="s">
+      <c r="A46" s="120"/>
+      <c r="B46" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="72">
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="D46" s="90" t="s">
+      <c r="D46" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="104"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="73">
+      <c r="A47" s="120"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="72">
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
-      <c r="D47" s="90" t="s">
+      <c r="D47" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="104"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="73">
+      <c r="A48" s="120"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="72">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="D48" s="90" t="s">
+      <c r="D48" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="87"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="104"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="73">
+      <c r="A49" s="120"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="72">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
-      <c r="D49" s="90" t="s">
+      <c r="D49" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="87"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="104"/>
-      <c r="B50" s="69" t="s">
+      <c r="A50" s="120"/>
+      <c r="B50" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="72">
         <f t="shared" si="4"/>
         <v>302</v>
       </c>
-      <c r="D50" s="90" t="s">
+      <c r="D50" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8611,27 +8730,27 @@
   </sheetPr>
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="256" width="8.88671875" style="94" customWidth="1"/>
+    <col min="1" max="256" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="66"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -8639,18 +8758,18 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="66" t="s">
         <v>69</v>
       </c>
       <c r="H2" s="6"/>
@@ -8659,1217 +8778,1217 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="121" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="69" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="120"/>
+      <c r="B4" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="72">
         <v>-3</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="73">
+      <c r="A5" s="120"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="72">
         <f t="shared" ref="C5:C20" si="0">C4+1</f>
         <v>-2</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="76" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="104"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="73">
+      <c r="A6" s="120"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="72">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="82" t="s">
+      <c r="H6" s="76"/>
+      <c r="I6" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="73">
+      <c r="A7" s="120"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="84" t="s">
+      <c r="E7" s="70"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="120"/>
+      <c r="B8" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="72">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="73">
+      <c r="E8" s="70"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="72">
         <v>0</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="73">
+      <c r="A9" s="120"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="72">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="73">
+      <c r="E9" s="70"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="72">
         <f t="shared" ref="G9:G19" si="1">G8+1</f>
         <v>1</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="82" t="s">
+      <c r="H9" s="70"/>
+      <c r="I9" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="104"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="73">
+      <c r="A10" s="120"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="72">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="73">
+      <c r="E10" s="70"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="72">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="82" t="s">
+      <c r="H10" s="70"/>
+      <c r="I10" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="104"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="73">
+      <c r="A11" s="120"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="72">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="69" t="s">
+      <c r="E11" s="70"/>
+      <c r="F11" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="72">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="104"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="120"/>
+      <c r="B12" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="72">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="73">
+      <c r="E12" s="70"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="72">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="104"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="73">
+      <c r="A13" s="120"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="72">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="73">
+      <c r="E13" s="70"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="72">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="104"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="73">
+      <c r="A14" s="120"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="72">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="73">
+      <c r="E14" s="70"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="72">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="73">
+      <c r="A15" s="120"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="72">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="69" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="72">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="104"/>
-      <c r="B16" s="69" t="s">
+      <c r="A16" s="120"/>
+      <c r="B16" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="72">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="73">
+      <c r="E16" s="70"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="72">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="104"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="73">
+      <c r="A17" s="120"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="72">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="73">
+      <c r="E17" s="70"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="72">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="104"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="73">
+      <c r="A18" s="120"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="72">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="73">
+      <c r="E18" s="70"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="72">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="104"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="73">
+      <c r="A19" s="120"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="72">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="69" t="s">
+      <c r="E19" s="70"/>
+      <c r="F19" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="72">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
     </row>
     <row r="20" spans="1:11" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="104"/>
-      <c r="B20" s="69" t="s">
+      <c r="A20" s="120"/>
+      <c r="B20" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="72">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="70" t="s">
+      <c r="E20" s="70"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="104"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="70" t="s">
+      <c r="A21" s="120"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="69" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="72">
         <v>251</v>
       </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="104"/>
-      <c r="B22" s="69" t="s">
+      <c r="A22" s="120"/>
+      <c r="B22" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="72">
         <f>C20+(4*30)+(4*29)</f>
         <v>249</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="73">
+      <c r="E22" s="70"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="72">
         <f t="shared" ref="G22:G29" si="2">G21+1</f>
         <v>252</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="104"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="73">
+      <c r="A23" s="120"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="72">
         <f t="shared" ref="C23:C31" si="3">C22+1</f>
         <v>250</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="73">
+      <c r="E23" s="70"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="72">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="H23" s="82" t="s">
+      <c r="H23" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="104"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="73">
+      <c r="A24" s="120"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="72">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="73">
+      <c r="E24" s="70"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="72">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="104"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="73">
+      <c r="A25" s="120"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="72">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="69" t="s">
+      <c r="E25" s="70"/>
+      <c r="F25" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="73">
+      <c r="G25" s="72">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="104"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="73">
+      <c r="A26" s="120"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="72">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="73">
+      <c r="E26" s="70"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="72">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="104"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="73">
+      <c r="A27" s="120"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="72">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="73">
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="72">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="104"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="73">
+      <c r="A28" s="120"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="72">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="73">
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="72">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="73">
+      <c r="A29" s="120"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="72">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="73">
+      <c r="G29" s="72">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="H29" s="93"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="120"/>
+      <c r="B30" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="72">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="69" t="s">
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="73">
+      <c r="G30" s="72">
         <f>G29+23</f>
         <v>282</v>
       </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="72">
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="69" t="s">
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="73">
+      <c r="G31" s="72">
         <f>G30+4</f>
         <v>286</v>
       </c>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="104"/>
-      <c r="B32" s="69" t="s">
+      <c r="A32" s="120"/>
+      <c r="B32" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="72">
         <f>C31+8</f>
         <v>266</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="69" t="s">
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="73">
+      <c r="G32" s="72">
         <f>G31+8</f>
         <v>294</v>
       </c>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="104"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="120"/>
+      <c r="B33" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="72">
         <f>C32+4</f>
         <v>270</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="73">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="72">
         <f t="shared" ref="G33:G40" si="4">G32+1</f>
         <v>295</v>
       </c>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="104"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="73">
+      <c r="A34" s="120"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="72">
         <f>C33+1</f>
         <v>271</v>
       </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="73">
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="72">
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
-      <c r="H34" s="87"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="104"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="73">
+      <c r="A35" s="120"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="72">
         <f>C34+1</f>
         <v>272</v>
       </c>
-      <c r="D35" s="87"/>
-      <c r="E35" s="90" t="s">
+      <c r="D35" s="86"/>
+      <c r="E35" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="78"/>
-      <c r="G35" s="73">
+      <c r="F35" s="77"/>
+      <c r="G35" s="72">
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
-      <c r="H35" s="90" t="s">
+      <c r="H35" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="70" t="s">
+      <c r="A36" s="120"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="69" t="s">
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="73">
+      <c r="G36" s="72">
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="H36" s="90" t="s">
+      <c r="H36" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="104"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="73">
+      <c r="A37" s="120"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="72">
         <v>305</v>
       </c>
-      <c r="D37" s="90" t="s">
+      <c r="D37" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="90" t="s">
+      <c r="E37" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="73">
+      <c r="F37" s="77"/>
+      <c r="G37" s="72">
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
-      <c r="H37" s="90" t="s">
+      <c r="H37" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="104"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="73">
+      <c r="A38" s="120"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="72">
         <f>C37+1</f>
         <v>306</v>
       </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="90" t="s">
+      <c r="D38" s="86"/>
+      <c r="E38" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="78"/>
-      <c r="G38" s="73">
+      <c r="F38" s="77"/>
+      <c r="G38" s="72">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="H38" s="90" t="s">
+      <c r="H38" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="104"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="73">
+      <c r="A39" s="120"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="72">
         <f>C38+1</f>
         <v>307</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="90" t="s">
+      <c r="D39" s="86"/>
+      <c r="E39" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="73">
+      <c r="F39" s="77"/>
+      <c r="G39" s="72">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="104"/>
-      <c r="B40" s="69" t="s">
+      <c r="A40" s="120"/>
+      <c r="B40" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="72">
         <f>C39+1</f>
         <v>308</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="69" t="s">
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="73">
+      <c r="G40" s="72">
         <f t="shared" si="4"/>
         <v>302</v>
       </c>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="104"/>
-      <c r="B41" s="69" t="s">
+      <c r="A41" s="120"/>
+      <c r="B41" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="72">
         <f>C40+4</f>
         <v>312</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="69" t="s">
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="73">
+      <c r="G41" s="72">
         <f>G40+4</f>
         <v>306</v>
       </c>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="104"/>
-      <c r="B42" s="69" t="s">
+      <c r="A42" s="120"/>
+      <c r="B42" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="72">
         <f>C41+8</f>
         <v>320</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="69" t="s">
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="73">
+      <c r="G42" s="72">
         <f>G41+4</f>
         <v>310</v>
       </c>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="104"/>
-      <c r="B43" s="69" t="s">
+      <c r="A43" s="120"/>
+      <c r="B43" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="73">
+      <c r="C43" s="72">
         <f>C42+4</f>
         <v>324</v>
       </c>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="69" t="s">
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="73">
+      <c r="G43" s="72">
         <f>G42+4</f>
         <v>314</v>
       </c>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="104"/>
-      <c r="B44" s="69" t="s">
+      <c r="A44" s="120"/>
+      <c r="B44" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="73">
+      <c r="C44" s="72">
         <f>C43+4</f>
         <v>328</v>
       </c>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="73">
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="72">
         <f>G43+1</f>
         <v>315</v>
       </c>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="104"/>
-      <c r="B45" s="69" t="s">
+      <c r="A45" s="120"/>
+      <c r="B45" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="73">
+      <c r="C45" s="72">
         <f>C44+4</f>
         <v>332</v>
       </c>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="73">
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="72">
         <f>G44+1</f>
         <v>316</v>
       </c>
-      <c r="H45" s="87"/>
-      <c r="I45" s="90" t="s">
+      <c r="H45" s="86"/>
+      <c r="I45" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="104"/>
-      <c r="B46" s="69" t="s">
+      <c r="A46" s="120"/>
+      <c r="B46" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="72">
         <f>C45+8</f>
         <v>340</v>
       </c>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="70" t="s">
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="104"/>
-      <c r="B47" s="69" t="s">
+      <c r="A47" s="120"/>
+      <c r="B47" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="72">
         <f>C46+4</f>
         <v>344</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="73">
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="72">
         <v>363</v>
       </c>
-      <c r="H47" s="90" t="s">
+      <c r="H47" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="I47" s="90" t="s">
+      <c r="I47" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="104"/>
-      <c r="B48" s="69" t="s">
+      <c r="A48" s="120"/>
+      <c r="B48" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="72">
         <f>C47+8</f>
         <v>352</v>
       </c>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="73">
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="72">
         <f t="shared" ref="G48:G54" si="5">G47+1</f>
         <v>364</v>
       </c>
-      <c r="H48" s="87"/>
-      <c r="I48" s="90" t="s">
+      <c r="H48" s="86"/>
+      <c r="I48" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="104"/>
-      <c r="B49" s="69" t="s">
+      <c r="A49" s="120"/>
+      <c r="B49" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="72">
         <f>C48+4</f>
         <v>356</v>
       </c>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="73">
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="72">
         <f t="shared" si="5"/>
         <v>365</v>
       </c>
-      <c r="H49" s="87"/>
-      <c r="I49" s="90" t="s">
+      <c r="H49" s="86"/>
+      <c r="I49" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="104"/>
-      <c r="B50" s="69" t="s">
+      <c r="A50" s="120"/>
+      <c r="B50" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="72">
         <f>C49+4</f>
         <v>360</v>
       </c>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="69" t="s">
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="73">
+      <c r="G50" s="72">
         <f t="shared" si="5"/>
         <v>366</v>
       </c>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="104"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="73">
+      <c r="A51" s="120"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="72">
         <f t="shared" ref="C51:C58" si="6">C50+1</f>
         <v>361</v>
       </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="73">
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="72">
         <f t="shared" si="5"/>
         <v>367</v>
       </c>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="104"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="73">
+      <c r="A52" s="120"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="72">
         <f t="shared" si="6"/>
         <v>362</v>
       </c>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="73">
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="72">
         <f t="shared" si="5"/>
         <v>368</v>
       </c>
-      <c r="H52" s="90" t="s">
+      <c r="H52" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="104"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="73">
+      <c r="A53" s="120"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="72">
         <f t="shared" si="6"/>
         <v>363</v>
       </c>
-      <c r="D53" s="90" t="s">
+      <c r="D53" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="87"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="73">
+      <c r="E53" s="86"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="72">
         <f t="shared" si="5"/>
         <v>369</v>
       </c>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="86"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="104"/>
-      <c r="B54" s="69" t="s">
+      <c r="A54" s="120"/>
+      <c r="B54" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="73">
+      <c r="C54" s="72">
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
-      <c r="D54" s="90" t="s">
+      <c r="D54" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="87"/>
-      <c r="F54" s="69" t="s">
+      <c r="E54" s="86"/>
+      <c r="F54" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="73">
+      <c r="G54" s="72">
         <f t="shared" si="5"/>
         <v>370</v>
       </c>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="86"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="104"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="73">
+      <c r="A55" s="120"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="72">
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
-      <c r="D55" s="90" t="s">
+      <c r="D55" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
+      <c r="E55" s="86"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="86"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="104"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="73">
+      <c r="A56" s="120"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="72">
         <f t="shared" si="6"/>
         <v>366</v>
       </c>
-      <c r="D56" s="90" t="s">
+      <c r="D56" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="87"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="86"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="104"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="73">
+      <c r="A57" s="120"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="72">
         <f t="shared" si="6"/>
         <v>367</v>
       </c>
-      <c r="D57" s="90" t="s">
+      <c r="D57" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="87"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="86"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="104"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="73">
+      <c r="A58" s="120"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="72">
         <f t="shared" si="6"/>
         <v>368</v>
       </c>
-      <c r="D58" s="90" t="s">
+      <c r="D58" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="87"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9882,4 +10001,455 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C730F-E7CB-43A2-81AF-3CC6699AF093}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="122"/>
+    <col min="10" max="10" width="8.88671875" style="125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="123">
+        <v>6</v>
+      </c>
+      <c r="I1" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="123">
+        <v>58</v>
+      </c>
+      <c r="I2" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="125">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="124">
+        <f>MIN(B1, B2)</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="127">
+        <f>J1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="122"/>
+      <c r="B4" s="125"/>
+      <c r="I4" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="127">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="122" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="123">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="130" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="127">
+        <f>B26</f>
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="123">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="130" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7">
+        <f>B5+B1</f>
+        <v>6</v>
+      </c>
+      <c r="I7" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="125">
+        <f>IF(J2=B9,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="125">
+        <f>B6+_xlfn.BITLSHIFT(B3-1, 2)</f>
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="125">
+        <f>IF(J6&lt;B7, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="122" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="125">
+        <f>B6+_xlfn.BITLSHIFT(B2, 2)</f>
+        <v>321</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="125">
+        <f>J2+4</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="127">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="130" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="127">
+        <f>B22</f>
+        <v>2.3148148148148147E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="123">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="130" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="125">
+        <f>IF(B5&lt;B11, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="125">
+        <f>IF(J9=$B$9,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="125">
+        <f>B8-4</f>
+        <v>105</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="125">
+        <f>IF(J11&lt;B12, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="127">
+        <v>4.6296296296296294E-5</v>
+      </c>
+      <c r="C14" s="131"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="125">
+        <f>B11-1</f>
+        <v>4</v>
+      </c>
+      <c r="C15" s="131"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="125">
+        <f>IF($B$5&lt;B15, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="131"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="125">
+        <f>B13-4</f>
+        <v>101</v>
+      </c>
+      <c r="C17" s="131"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="127">
+        <v>3.4722222222222222E-5</v>
+      </c>
+      <c r="C18" s="131"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="125">
+        <f>B15-1</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="131"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="125">
+        <f>IF($B$5&lt;B19, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="131"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="125">
+        <f>B17-4</f>
+        <v>97</v>
+      </c>
+      <c r="C21" s="131"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="127">
+        <v>2.3148148148148147E-5</v>
+      </c>
+      <c r="C22" s="131"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="125">
+        <f>B19-1</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="131"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="125">
+        <f>IF($B$5&lt;B23, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="131"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="125">
+        <f>B21-4</f>
+        <v>93</v>
+      </c>
+      <c r="C25" s="131"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="127">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="C26" s="131"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="125">
+        <f>B23-1</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="131"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="125">
+        <f>IF($B$5&lt;B27, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="131"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="125">
+        <f>B25-4</f>
+        <v>89</v>
+      </c>
+      <c r="C29" s="131"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="128">
+        <v>0</v>
+      </c>
+      <c r="C30" s="131"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="125">
+        <f>B27-1</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="131"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="125">
+        <f>IF($B$5&lt;B31, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="131"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="126" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="129">
+        <f>B30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="126" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34">
+        <f>B29</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="130" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35">
+        <f>B34+4</f>
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>